--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480499.7470222876</v>
+        <v>507846.9793192721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.9300607</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309996</v>
+        <v>5571875.219309998</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>26.20075604774391</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.8385894655533</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,61 +896,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>60.09118670082915</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,13 +990,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>156.0287596262406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1233,7 +1233,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1373,61 +1373,61 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>75.98437144330408</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,13 +1464,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1704,7 +1704,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>63.16017003319293</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1901,7 +1901,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,64 +2090,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>94.4876644797814</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>83.03189205754168</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>33.41974965037251</v>
       </c>
       <c r="I24" t="n">
-        <v>53.17436456111953</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>62.52515684565924</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2691,16 +2691,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>41.95719884904037</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>82.62549675400462</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2956,58 +2956,58 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,20 +3032,20 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3080,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>63.50968227731285</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>84.93132355949651</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>19.92956103328818</v>
       </c>
       <c r="H36" t="n">
-        <v>8.051864102726135</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>239.083988567788</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>11.85487546784171</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3746,67 +3746,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3822,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>53.24673895424847</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>84.47305450481102</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3974,76 +3974,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>212.285385643442</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>150.9993436125</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>62.11690385378651</v>
       </c>
     </row>
     <row r="46">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6722890434539</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C3" t="n">
-        <v>694.6722890434539</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,13 +4419,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4452,7 +4452,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="4">
@@ -4507,7 +4507,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4595,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638.2370107872948</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C6" t="n">
-        <v>463.7839815061678</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y6" t="n">
-        <v>806.4523478073629</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="7">
@@ -4756,13 +4756,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C8" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
         <v>243.9530410142718</v>
@@ -4835,19 +4835,19 @@
         <v>730.8505943024719</v>
       </c>
       <c r="U8" t="n">
-        <v>730.8505943024719</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V8" t="n">
-        <v>730.8505943024719</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W8" t="n">
-        <v>730.8505943024719</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X8" t="n">
-        <v>730.8505943024719</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y8" t="n">
-        <v>730.8505943024719</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="9">
@@ -4860,43 +4860,43 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>612.718391167419</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>463.7839815061678</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,7 +5127,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
         <v>613.2059550252818</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5221,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5315,13 +5315,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>641.7054013000538</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>482.4679462945983</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>335.9333883214833</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>197.2025629040988</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>83.83342731167816</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,22 +5358,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5540,13 +5540,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>521.2549444941228</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>346.8019152129958</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>197.8675055517446</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>38.63005054628906</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,13 +5601,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5692,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5862,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>880.1865574727153</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>645.0344492409727</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5966,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>212.4775805350491</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C24" t="n">
-        <v>212.4775805350491</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D24" t="n">
-        <v>212.4775805350491</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E24" t="n">
-        <v>212.4775805350491</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="F24" t="n">
-        <v>212.4775805350491</v>
+        <v>191.7692914067614</v>
       </c>
       <c r="G24" t="n">
-        <v>73.74675511766463</v>
+        <v>53.03846598937687</v>
       </c>
       <c r="H24" t="n">
-        <v>73.74675511766463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>588.4532163200711</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>588.4532163200711</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>380.6929175551172</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="25">
@@ -6169,19 +6169,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6245,28 +6245,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
         <v>19.28114311021272</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,10 +6312,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6403,7 +6403,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6461,7 +6461,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>385.8037236438013</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C30" t="n">
-        <v>211.3506943626743</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D30" t="n">
-        <v>62.41628470142305</v>
+        <v>612.9361512081509</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>453.6986962026954</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>307.1641382295804</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6582,10 +6582,10 @@
         <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>554.0190606638694</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.0190606638694</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="C32" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="D32" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="E32" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="F32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.8418184905681</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>174.4860991253499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6786,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6886,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
         <v>829.5248650203655</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>292.9211302503287</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C36" t="n">
-        <v>118.4681009692017</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D36" t="n">
-        <v>118.4681009692017</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E36" t="n">
-        <v>118.4681009692017</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="F36" t="n">
-        <v>118.4681009692017</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4681009692017</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X36" t="n">
-        <v>500.6814290152826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y36" t="n">
-        <v>292.9211302503287</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>306.9463781888485</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="C39" t="n">
-        <v>306.9463781888485</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D39" t="n">
-        <v>158.0119685275972</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>722.5581771593352</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>514.7066769538023</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>306.9463781888485</v>
+        <v>521.6723209211027</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7442,7 +7442,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
         <v>749.627473042513</v>
@@ -7451,10 +7451,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>795.8418184905681</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X42" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>346.2587618989155</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C45" t="n">
-        <v>171.8057326177884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>171.8057326177884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7737,7 +7737,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>554.0190606638694</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>346.2587618989155</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="46">
@@ -7837,16 +7837,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
         <v>19.28114311021272</v>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>312.5030352242461</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9249,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,7 +9258,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11385,10 +11385,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,25 +22592,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,28 +22626,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>121.2443095168948</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>14.84410631175106</v>
       </c>
     </row>
     <row r="4">
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,16 +22784,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22835,10 +22835,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>87.3538788638096</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22878,13 +22878,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,7 +22920,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.65393615106379</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22996,7 +22996,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23005,7 +23005,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,7 +23036,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23075,7 +23075,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>96.72412754501165</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23352,13 +23352,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23574,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.23646281822215</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23622,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,19 +23808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>125.9137940316683</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,13 +23862,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,19 +23932,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>17.74777975671506</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,19 +24102,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>142.9094900234331</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>78.81569458612395</v>
       </c>
       <c r="I24" t="n">
-        <v>36.22226829029555</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,10 +24333,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>109.1580142581786</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,19 +24725,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>115.6878816063606</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>54.71802040920602</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,16 +24968,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>48.72576195918361</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>141.0100585214783</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25199,28 +25199,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>247.4175514543149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,10 +25245,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>117.4139561299225</v>
       </c>
       <c r="H36" t="n">
-        <v>104.1835801337703</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25445,16 +25445,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,10 +25473,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25485,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>12.61099459313158</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>193.8278203094627</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25710,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>104.3983415011525</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>167.2219286561086</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9875061275656</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25950,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>6.645736842900988</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>143.5657919235178</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="N2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="O2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="P2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32802.41465376027</v>
+        <v>-29533.82927421396</v>
       </c>
       <c r="C6" t="n">
-        <v>47967.01687778749</v>
+        <v>51235.60225733377</v>
       </c>
       <c r="D6" t="n">
-        <v>47967.01687778749</v>
+        <v>51235.60225733371</v>
       </c>
       <c r="E6" t="n">
-        <v>81594.61687778746</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="F6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="G6" t="n">
-        <v>81594.61687778747</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="H6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.20225733369</v>
       </c>
       <c r="I6" t="n">
-        <v>81594.61687778746</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="J6" t="n">
-        <v>18534.67427868124</v>
+        <v>21803.25965822749</v>
       </c>
       <c r="K6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="L6" t="n">
-        <v>81594.61687778751</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="M6" t="n">
-        <v>81594.61687778747</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="N6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="O6" t="n">
-        <v>81594.6168777875</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="P6" t="n">
-        <v>81594.61687778751</v>
+        <v>84863.20225733375</v>
       </c>
     </row>
   </sheetData>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>169.9067907798016</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35978,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,13 +36680,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38105,10 +38105,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192721</v>
+        <v>509551.735333539</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,19 +715,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.8385894655533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>60.09118670082915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>130.9180362598743</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1424,10 +1426,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>94.4876644797814</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>150.3641518778115</v>
       </c>
     </row>
     <row r="22">
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>33.80371536444976</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>33.41974965037251</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>112.9958914243439</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.52515684565924</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2691,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,13 +2879,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>62.82409118961541</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>82.62549675400462</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -2892,7 +2894,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3035,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.234466016111835</v>
       </c>
       <c r="F32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>147.1119663809893</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>84.93132355949651</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>19.92956103328818</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,67 +3505,67 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3588,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.85487546784171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,46 +3669,46 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>218.2545356023572</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3819,19 +3821,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>32.87280126892924</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>84.47305450481102</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C44" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>62.11690385378651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>911.8125548258105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>700.6811714053606</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>475.3318284112885</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W2" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X2" t="n">
-        <v>231.8830517671884</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4422,10 +4424,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4507,7 +4509,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>728.9050472788936</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C6" t="n">
-        <v>728.9050472788936</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9050472788936</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y6" t="n">
-        <v>728.9050472788936</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="7">
@@ -4741,28 +4743,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4860,25 +4862,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
         <v>817.1412885554689</v>
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5321,7 +5323,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
         <v>817.1412885554689</v>
@@ -5364,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5534,19 +5536,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5694,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>380.2300195200815</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C21" t="n">
-        <v>205.7769902389545</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D21" t="n">
-        <v>205.7769902389545</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E21" t="n">
-        <v>205.7769902389545</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F21" t="n">
-        <v>205.7769902389545</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
-        <v>205.7769902389545</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5862,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y21" t="n">
-        <v>548.4453565401495</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="22">
@@ -5947,10 +5949,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
         <v>829.5248650203655</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="C24" t="n">
-        <v>338.3038493798764</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D24" t="n">
-        <v>338.3038493798764</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E24" t="n">
-        <v>338.3038493798764</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>191.7692914067614</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>53.03846598937687</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>621.6962731820315</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>621.6962731820315</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,22 +6332,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>900.9004314241117</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>698.7138367828777</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>470.4902185192667</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>470.4902185192667</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6406,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C30" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D30" t="n">
-        <v>612.9361512081509</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E30" t="n">
-        <v>453.6986962026954</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>307.1641382295804</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E32" t="n">
-        <v>738.7078125165641</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y32" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6886,16 +6888,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
         <v>829.5248650203655</v>
@@ -6914,7 +6916,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>243.8349102288568</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>243.8349102288568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>243.8349102288568</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>243.8349102288568</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7138,7 +7140,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>53.24012552959363</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>53.24012552959363</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7634,7 +7636,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.4883050441255</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y45" t="n">
-        <v>194.4883050441255</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8070,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,10 +9257,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.84410631175106</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690794</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>87.3538788638096</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23005,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23039,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23121,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>208.5567658558928</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23984,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>18.51256717168616</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>17.74777975671506</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>55.31854389949291</v>
       </c>
     </row>
     <row r="22">
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>78.81569458612395</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24339,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>92.77709377913361</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>109.1580142581786</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>94.82098926578553</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>54.71802040920602</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24780,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24923,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>372.69590405615</v>
       </c>
       <c r="F32" t="n">
-        <v>176.6722207847417</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>25.59653260732648</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>141.0100585214783</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>117.4139561299225</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25448,10 +25450,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25476,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>36.26901108812089</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.8278203094627</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>164.4793060611234</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25707,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>104.4707158942814</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>167.2219286561086</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25916,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>143.5657919235178</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="F2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879939</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
@@ -26338,19 +26340,19 @@
         <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26522,22 +26524,22 @@
         <v>-29533.82927421396</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733377</v>
+        <v>51235.60225733376</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733371</v>
+        <v>51235.60225733375</v>
       </c>
       <c r="E6" t="n">
+        <v>84863.20225733376</v>
+      </c>
+      <c r="F6" t="n">
+        <v>84863.20225733376</v>
+      </c>
+      <c r="G6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="F6" t="n">
-        <v>84863.20225733372</v>
-      </c>
-      <c r="G6" t="n">
-        <v>84863.20225733375</v>
-      </c>
       <c r="H6" t="n">
-        <v>84863.20225733369</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="I6" t="n">
         <v>84863.20225733372</v>
@@ -26546,19 +26548,19 @@
         <v>21803.25965822749</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="L6" t="n">
         <v>84863.20225733372</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="P6" t="n">
         <v>84863.20225733375</v>
@@ -34790,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,10 +35977,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.735333539</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>21.18375537072436</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>130.9180362598743</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>233.9932461837009</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,67 +1606,67 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
     </row>
     <row r="16">
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>150.3641518778115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>112.9958914243439</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2490,55 +2490,55 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="E30" t="n">
-        <v>62.82409118961541</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E32" t="n">
-        <v>9.234466016111835</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>147.1119663809893</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,70 +3423,70 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U39" t="n">
-        <v>189.6723709928539</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.2545356023572</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>32.87280126892924</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>19.15541836171557</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>66.11861112998599</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.6788758079141</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,19 +4436,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4506,10 +4506,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>926.4957180431458</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H12" t="n">
         <v>110.334904905842</v>
@@ -5126,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="13">
@@ -5217,13 +5217,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5390,19 +5390,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5454,22 +5454,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
         <v>19.28114311021272</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
         <v>475.3318284112885</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D21" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G21" t="n">
         <v>132.6502787026334</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>735.8335372470253</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>492.3847606029253</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>284.5332603973924</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>453.4809361619635</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>453.4809361619635</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>735.8335372470253</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>621.6962731820315</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>621.6962731820315</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6420,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>571.6739692052849</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E30" t="n">
-        <v>508.2152912359765</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6654,7 +6654,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>580.3071014395105</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>431.3726917782591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6782,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W35" t="n">
-        <v>467.067986854209</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W41" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X41" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>212.4775805350491</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>212.4775805350491</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>212.4775805350491</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>53.24012552959363</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>53.24012552959363</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
         <v>20.03527576299844</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>588.4532163200711</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>380.6929175551172</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>333.7844730889342</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.2549444941228</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C45" t="n">
-        <v>346.8019152129958</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D45" t="n">
-        <v>197.8675055517446</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E45" t="n">
-        <v>38.63005054628906</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>897.2706796217615</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>897.2706796217615</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>897.2706796217615</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="W45" t="n">
-        <v>689.4702815141908</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="X45" t="n">
-        <v>689.4702815141908</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y45" t="n">
-        <v>689.4702815141908</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>344.0891364002832</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>83.50129159232563</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>208.5567658558928</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>17.70173697721867</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2759793369997</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>70.26853576158751</v>
       </c>
     </row>
     <row r="16">
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23861,16 +23861,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>100.9443125299448</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>373.0723303772617</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>18.51256717168616</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>114.1648013839902</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.31854389949291</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24223,10 +24223,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>189.2921341996816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>92.77709377913361</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24499,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>24.85510695903295</v>
       </c>
       <c r="E30" t="n">
-        <v>94.82098926578553</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,10 +24815,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24894,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24922,10 +24922,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E32" t="n">
-        <v>372.69590405615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -24998,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>25.59653260732648</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25092,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>10.40164370392489</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4932414420988</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U39" t="n">
-        <v>36.26901108812089</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>164.4793060611234</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>104.4707158942814</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>257.4082506688596</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>125.9137940316683</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>105.5645599738518</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,10 +26003,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
@@ -26337,25 +26337,25 @@
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421396</v>
+        <v>-41751.83989425443</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733376</v>
+        <v>39017.59163729326</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733375</v>
+        <v>39017.59163729328</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822749</v>
+        <v>9585.249038187072</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.1916372933</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466022</v>
+        <v>499301.2742297004</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>170.6554636898984</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1065,58 +1065,58 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.42556848774752</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>233.9932461837009</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1624,13 +1624,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y15" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>91.47501740479427</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>70.73885857389301</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2101,7 +2101,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>64.29143958270525</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>23.17871577922039</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2724,46 +2724,46 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>122.5899586056058</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.4761733385883</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.05241763862484</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>29.05241763862484</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>115.0114486120605</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>40.25124374579011</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3918,49 +3918,49 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4024,22 +4024,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.91888512441763</v>
       </c>
       <c r="S45" t="n">
-        <v>66.11861112998599</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4146,58 +4146,58 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
         <v>262.7299197543128</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4448,13 +4448,13 @@
         <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4549,7 +4549,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4789,10 +4789,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,28 +4825,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
         <v>506.1786963984129</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>284.787934186969</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C12" t="n">
         <v>110.334904905842</v>
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5153,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>492.5482329519229</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>492.5482329519229</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y12" t="n">
-        <v>284.787934186969</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="13">
@@ -5226,16 +5226,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5399,10 +5399,10 @@
         <v>156.0631229240681</v>
       </c>
       <c r="X15" t="n">
-        <v>156.0631229240681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>225.0492861822236</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>225.0492861822236</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>892.6037630117544</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>690.4171683705204</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>462.1935501069094</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>227.0414418751666</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>227.0414418751666</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>156.0631229240681</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C21" t="n">
-        <v>156.0631229240681</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D21" t="n">
-        <v>156.0631229240681</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0631229240681</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>156.0631229240681</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>156.0631229240681</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>156.0631229240681</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>156.0631229240681</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="22">
@@ -5946,10 +5946,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6183,7 +6183,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>706.487660844374</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>471.3355526126313</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>227.8867759685313</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,13 +6554,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6584,10 +6584,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>358.5031156175915</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>184.0500863364645</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>184.0500863364645</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.81263133100899</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.81263133100899</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.81263133100899</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.81263133100899</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>934.7112791079849</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>706.487660844374</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>471.3355526126313</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W33" t="n">
-        <v>227.8867759685313</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="34">
@@ -6846,10 +6846,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7058,10 +7058,10 @@
         <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
         <v>20.03527576299844</v>
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>934.7112791079849</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>706.487660844374</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="V39" t="n">
-        <v>471.3355526126313</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W39" t="n">
-        <v>227.8867759685313</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="40">
@@ -7362,7 +7362,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U41" t="n">
-        <v>518.2486856454962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V41" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>923.3993335451917</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>749.9819889958605</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>749.9819889958605</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>749.9819889958605</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I44" t="n">
         <v>31.35113235729608</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2400998294063</v>
       </c>
       <c r="S45" t="n">
-        <v>897.2706796217615</v>
+        <v>700.8227552800752</v>
       </c>
       <c r="T45" t="n">
-        <v>897.2706796217615</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="U45" t="n">
-        <v>897.2706796217615</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V45" t="n">
-        <v>662.1185713900188</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9020,13 +9020,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9728,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,10 +22549,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>302.8566240687152</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>81.03951947102121</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>317.3055321907215</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>83.50129159232563</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23165,10 +23165,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23272,7 +23272,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>170.6702810763838</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>17.70173697721867</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23512,13 +23512,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>287.2759793369997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y15" t="n">
-        <v>70.26853576158751</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23819,16 +23819,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>45.86849975841636</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>100.9443125299448</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>373.0723303772617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23989,7 +23989,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24016,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>108.4170594056105</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>114.1648013839902</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24186,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,10 +24220,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>287.0492336280195</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24423,10 +24423,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,13 +24499,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>24.85510695903295</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24776,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24970,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>83.92045951282678</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>171.1123110561968</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25174,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>10.40164370392489</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>323.535651625599</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>171.1123110561968</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>110.9299334689143</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25602,10 +25602,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>150.6253511395826</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>59.90659040685303</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25955,13 +25955,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>11.23894902822551</v>
       </c>
       <c r="S45" t="n">
-        <v>105.5645599738518</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879942</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425443</v>
+        <v>-30755.63033621803</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.59163729326</v>
+        <v>50013.80119532964</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729328</v>
+        <v>50013.80119532969</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187072</v>
+        <v>20581.45859622343</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.1916372933</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532973</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35740,13 +35740,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
